--- a/BackTest/2020-01-11 BackTest LINK.xlsx
+++ b/BackTest/2020-01-11 BackTest LINK.xlsx
@@ -2026,17 +2026,13 @@
         <v>2492.816666666667</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>2476</v>
-      </c>
-      <c r="K47" t="n">
-        <v>2476</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
@@ -2065,22 +2061,14 @@
         <v>2491.733333333333</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>2482</v>
-      </c>
-      <c r="K48" t="n">
-        <v>2476</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2108,22 +2096,14 @@
         <v>2490.7</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>2480</v>
-      </c>
-      <c r="K49" t="n">
-        <v>2476</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -9606,13 +9586,17 @@
         <v>2515.483333333333</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>2470</v>
+      </c>
+      <c r="K263" t="n">
+        <v>2470</v>
+      </c>
       <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
@@ -9647,8 +9631,14 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>2470</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9682,8 +9672,14 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>2470</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9711,14 +9707,22 @@
         <v>2511.366666666667</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>2462</v>
+      </c>
+      <c r="K266" t="n">
+        <v>2470</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9746,14 +9750,22 @@
         <v>2509.983333333333</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>2460</v>
+      </c>
+      <c r="K267" t="n">
+        <v>2470</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9781,14 +9793,22 @@
         <v>2508.816666666667</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>2460</v>
+      </c>
+      <c r="K268" t="n">
+        <v>2470</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9816,14 +9836,22 @@
         <v>2507.966666666667</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>2466</v>
+      </c>
+      <c r="K269" t="n">
+        <v>2470</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -9851,14 +9879,22 @@
         <v>2507.05</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>2473</v>
+      </c>
+      <c r="K270" t="n">
+        <v>2470</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -9892,8 +9928,14 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>2470</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -9927,8 +9969,14 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>2470</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -9956,18 +10004,20 @@
         <v>2503.266666666667</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
-        <v>2467</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
-        <v>2467</v>
-      </c>
-      <c r="L273" t="inlineStr"/>
+        <v>2470</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -9995,20 +10045,18 @@
         <v>2501.683333333333</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
-        <v>2464</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M274" t="n">
@@ -10038,16 +10086,14 @@
         <v>2500.566666666667</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>2469</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -10088,7 +10134,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -10129,7 +10175,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -10163,16 +10209,14 @@
         <v>2496.666666666667</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>2456</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -10206,16 +10250,14 @@
         <v>2495.083333333333</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>2448</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -10249,16 +10291,14 @@
         <v>2493.716666666667</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>2456</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -10292,16 +10332,14 @@
         <v>2492.483333333333</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -10341,10 +10379,10 @@
         <v>0</v>
       </c>
       <c r="J282" t="n">
-        <v>2462</v>
+        <v>2459</v>
       </c>
       <c r="K282" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -10378,16 +10416,14 @@
         <v>2490.2</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -10421,16 +10457,14 @@
         <v>2489.1</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>2466</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -10464,16 +10498,14 @@
         <v>2488.016666666667</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
-        <v>2467</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -10507,16 +10539,14 @@
         <v>2487.133333333333</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="n">
-        <v>2468</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -10550,16 +10580,14 @@
         <v>2486.266666666667</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
-        <v>2463</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -10593,16 +10621,14 @@
         <v>2485.233333333333</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>2465</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -10636,16 +10662,14 @@
         <v>2484.35</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>2469</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -10679,16 +10703,14 @@
         <v>2483.533333333333</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>2474</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -10722,16 +10744,14 @@
         <v>2482.75</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>2472</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -10765,16 +10785,14 @@
         <v>2481.783333333333</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>2474</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -10808,16 +10826,14 @@
         <v>2480.733333333333</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>2469</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -10851,16 +10867,14 @@
         <v>2479.683333333333</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>2469</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -10894,16 +10908,14 @@
         <v>2478.783333333333</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>2474</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -10937,16 +10949,14 @@
         <v>2478.183333333333</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>2480</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -10980,16 +10990,14 @@
         <v>2477.65</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>2486</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -11023,16 +11031,14 @@
         <v>2477.166666666667</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>2489</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -11066,16 +11072,14 @@
         <v>2476.566666666667</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>2482</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -11116,7 +11120,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -11157,7 +11161,7 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -11198,7 +11202,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -11239,7 +11243,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -11280,7 +11284,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -11321,7 +11325,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -11362,7 +11366,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -11403,7 +11407,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -11444,7 +11448,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -11485,7 +11489,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -11526,7 +11530,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -11567,7 +11571,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -11608,7 +11612,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -11642,16 +11646,14 @@
         <v>2471.216666666667</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>2462</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -11685,16 +11687,14 @@
         <v>2471.2</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>2477</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -11728,16 +11728,14 @@
         <v>2471.383333333333</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>2485</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -11771,16 +11769,14 @@
         <v>2471.566666666667</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>2485</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -11821,7 +11817,7 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -11862,7 +11858,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -11903,7 +11899,7 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -11944,7 +11940,7 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -11985,7 +11981,7 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -12026,7 +12022,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -12067,7 +12063,7 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -12108,7 +12104,7 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -12149,7 +12145,7 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -12190,7 +12186,7 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -12231,7 +12227,7 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -12272,7 +12268,7 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
@@ -12313,7 +12309,7 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -12354,7 +12350,7 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -12395,7 +12391,7 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
@@ -12436,7 +12432,7 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
@@ -12477,7 +12473,7 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L333" t="inlineStr">
         <is>
@@ -12518,7 +12514,7 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L334" t="inlineStr">
         <is>
@@ -12559,7 +12555,7 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
@@ -12600,7 +12596,7 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
@@ -12641,7 +12637,7 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L337" t="inlineStr">
         <is>
@@ -12682,7 +12678,7 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
@@ -12723,7 +12719,7 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L339" t="inlineStr">
         <is>
@@ -12764,7 +12760,7 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L340" t="inlineStr">
         <is>
@@ -12805,7 +12801,7 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L341" t="inlineStr">
         <is>
@@ -12846,7 +12842,7 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L342" t="inlineStr">
         <is>
@@ -12883,19 +12879,19 @@
         <v>0</v>
       </c>
       <c r="I343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>1</v>
+        <v>1.021315789473684</v>
       </c>
     </row>
     <row r="344">
@@ -12924,17 +12920,11 @@
         <v>0</v>
       </c>
       <c r="I344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="n">
-        <v>2467</v>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12968,14 +12958,8 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="n">
-        <v>2467</v>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13009,14 +12993,8 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="n">
-        <v>2467</v>
-      </c>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="inlineStr"/>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13050,14 +13028,8 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="n">
-        <v>2467</v>
-      </c>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="inlineStr"/>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13091,14 +13063,8 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="n">
-        <v>2467</v>
-      </c>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13132,14 +13098,8 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="n">
-        <v>2467</v>
-      </c>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="inlineStr"/>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13173,14 +13133,8 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="n">
-        <v>2467</v>
-      </c>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13214,14 +13168,8 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="n">
-        <v>2467</v>
-      </c>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="inlineStr"/>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13255,14 +13203,8 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="n">
-        <v>2467</v>
-      </c>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="inlineStr"/>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13296,14 +13238,8 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="n">
-        <v>2467</v>
-      </c>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13337,14 +13273,8 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
-        <v>2467</v>
-      </c>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13378,14 +13308,8 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>2467</v>
-      </c>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13419,14 +13343,8 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>2467</v>
-      </c>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13460,14 +13378,8 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="n">
-        <v>2467</v>
-      </c>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13501,14 +13413,8 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="n">
-        <v>2467</v>
-      </c>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13542,14 +13448,8 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="n">
-        <v>2467</v>
-      </c>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="inlineStr"/>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13583,14 +13483,8 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="n">
-        <v>2467</v>
-      </c>
-      <c r="L360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="inlineStr"/>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13624,14 +13518,8 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="n">
-        <v>2467</v>
-      </c>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="inlineStr"/>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13665,14 +13553,8 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="n">
-        <v>2467</v>
-      </c>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="inlineStr"/>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13703,19 +13585,13 @@
         <v>0</v>
       </c>
       <c r="I363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="n">
-        <v>2467</v>
-      </c>
-      <c r="L363" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="inlineStr"/>
       <c r="M363" t="n">
-        <v>1.026617349006891</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -13744,7 +13620,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
@@ -13779,7 +13655,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
@@ -13814,7 +13690,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
@@ -13849,7 +13725,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>

--- a/BackTest/2020-01-11 BackTest LINK.xlsx
+++ b/BackTest/2020-01-11 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1585.52301055984</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-1550.51251055984</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2468</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2468</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -524,14 +520,8 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -563,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -2678,7 +2662,7 @@
         <v>-495.7112097863633</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2711,7 +2695,7 @@
         <v>-2147.072809786363</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2777,7 +2761,7 @@
         <v>-2240.192809786363</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -4493,7 +4477,7 @@
         <v>-382.6556210733449</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4526,7 +4510,7 @@
         <v>-4180.526521073345</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4559,7 +4543,7 @@
         <v>-5953.318021073345</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4592,7 +4576,7 @@
         <v>-6480.625021073345</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4625,7 +4609,7 @@
         <v>-7481.924821073345</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4658,7 +4642,7 @@
         <v>-7480.924821073345</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4922,7 +4906,7 @@
         <v>-9074.138921073345</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4955,7 +4939,7 @@
         <v>-9873.853421073345</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5021,7 +5005,7 @@
         <v>-9083.309905799908</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5054,7 +5038,7 @@
         <v>-9745.456105799907</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5153,7 +5137,7 @@
         <v>-9744.456105799907</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5186,7 +5170,7 @@
         <v>-11657.41100579991</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5219,7 +5203,7 @@
         <v>-10375.10650579991</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5252,7 +5236,7 @@
         <v>-9726.478505799907</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5285,7 +5269,7 @@
         <v>-7406.649929924421</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5747,7 +5731,7 @@
         <v>-7797.794005799907</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5780,7 +5764,7 @@
         <v>-7650.173805799906</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5813,7 +5797,7 @@
         <v>-7750.173805799906</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5846,7 +5830,7 @@
         <v>-3770.840405799906</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5879,7 +5863,7 @@
         <v>-3782.852605799907</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5912,7 +5896,7 @@
         <v>-3702.080505799906</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5945,7 +5929,7 @@
         <v>-3632.793305799906</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5978,7 +5962,7 @@
         <v>-3648.902905799906</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6011,7 +5995,7 @@
         <v>-6198.626105799905</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6044,7 +6028,7 @@
         <v>-6198.626105799905</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6077,7 +6061,7 @@
         <v>-6198.626105799905</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6110,7 +6094,7 @@
         <v>-6250.268305799906</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6143,7 +6127,7 @@
         <v>-6090.995664361281</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6176,7 +6160,7 @@
         <v>-10191.21486436128</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6209,7 +6193,7 @@
         <v>-10191.21486436128</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6242,7 +6226,7 @@
         <v>-10191.21486436128</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6275,7 +6259,7 @@
         <v>-12477.63596436128</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6308,7 +6292,7 @@
         <v>-13377.63596436128</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6341,7 +6325,7 @@
         <v>-13375.63596436128</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6374,7 +6358,7 @@
         <v>-13675.16006436128</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6407,7 +6391,7 @@
         <v>-13797.41243423938</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6440,7 +6424,7 @@
         <v>-13688.50773423938</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6506,7 +6490,7 @@
         <v>-13711.96503423938</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6539,7 +6523,7 @@
         <v>-13711.96503423938</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6572,7 +6556,7 @@
         <v>-15711.96503423938</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6605,7 +6589,7 @@
         <v>-16902.95753423938</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6638,7 +6622,7 @@
         <v>-16968.22463423938</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6671,7 +6655,7 @@
         <v>-17141.02063423938</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6704,7 +6688,7 @@
         <v>-17141.02063423938</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6737,7 +6721,7 @@
         <v>-16697.99423423938</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6770,7 +6754,7 @@
         <v>-16699.99423423938</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6803,7 +6787,7 @@
         <v>-16457.06143423938</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6836,7 +6820,7 @@
         <v>-16611.60963423938</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6869,7 +6853,7 @@
         <v>-15552.48853423938</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6902,7 +6886,7 @@
         <v>-15353.11963423938</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6935,7 +6919,7 @@
         <v>-15552.48853423938</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6968,7 +6952,7 @@
         <v>-15665.10913423938</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7001,7 +6985,7 @@
         <v>-15665.10913423938</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7034,7 +7018,7 @@
         <v>-17839.12663423938</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8882,7 +8866,7 @@
         <v>-4814.414795272799</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8915,7 +8899,7 @@
         <v>-4450.387295272799</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8948,7 +8932,7 @@
         <v>-4454.307326633049</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8981,7 +8965,7 @@
         <v>-5203.755526633049</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9575,7 +9559,7 @@
         <v>-4837.878326633048</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9608,7 +9592,7 @@
         <v>-4870.918826633048</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9641,7 +9625,7 @@
         <v>-5175.055326633048</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9674,7 +9658,7 @@
         <v>-5175.055326633048</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9707,7 +9691,7 @@
         <v>-5463.780426633048</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9740,7 +9724,7 @@
         <v>-5462.780426633048</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9773,7 +9757,7 @@
         <v>-5464.244626633048</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9806,7 +9790,7 @@
         <v>-5494.244626633048</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9839,7 +9823,7 @@
         <v>-13281.63712663305</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9872,7 +9856,7 @@
         <v>-13151.03562663305</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10070,7 +10054,7 @@
         <v>-13342.07572663305</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10103,7 +10087,7 @@
         <v>-13842.07572663305</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10136,7 +10120,7 @@
         <v>-13843.07572663305</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11621,10 +11605,14 @@
         <v>-26558.32560000545</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>2459</v>
+      </c>
+      <c r="J340" t="n">
+        <v>2459</v>
+      </c>
       <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
@@ -11654,11 +11642,19 @@
         <v>-24913.19540000545</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>2459</v>
+      </c>
+      <c r="J341" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11687,11 +11683,19 @@
         <v>-24640.15040000545</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>2462</v>
+      </c>
+      <c r="J342" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11720,11 +11724,19 @@
         <v>-24578.18830000545</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>2466</v>
+      </c>
+      <c r="J343" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11753,11 +11765,19 @@
         <v>-24578.18830000545</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>2467</v>
+      </c>
+      <c r="J344" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11786,11 +11806,19 @@
         <v>-24577.09700000545</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>2467</v>
+      </c>
+      <c r="J345" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11819,11 +11847,19 @@
         <v>-24635.28150000545</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>2468</v>
+      </c>
+      <c r="J346" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11852,11 +11888,19 @@
         <v>-24635.28150000545</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>2463</v>
+      </c>
+      <c r="J347" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11885,11 +11929,19 @@
         <v>-24135.28150000545</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>2463</v>
+      </c>
+      <c r="J348" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11918,11 +11970,19 @@
         <v>-23904.69140000545</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>2470</v>
+      </c>
+      <c r="J349" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11951,11 +12011,19 @@
         <v>-24105.00140000545</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>2474</v>
+      </c>
+      <c r="J350" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11987,8 +12055,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12020,8 +12094,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12053,8 +12133,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12086,8 +12172,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12119,8 +12211,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12152,8 +12250,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12185,8 +12289,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12218,8 +12328,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12251,8 +12367,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12284,8 +12406,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12317,8 +12445,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12350,8 +12484,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12383,8 +12523,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12416,8 +12562,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12449,8 +12601,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12482,8 +12640,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12515,8 +12679,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12548,8 +12718,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>2459</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12578,15 +12754,15 @@
         <v>-26163.25632085379</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="n">
-        <v>2472</v>
-      </c>
-      <c r="J369" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>2459</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L369" t="n">
@@ -12617,10 +12793,14 @@
         <v>-26202.29792085379</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>2467</v>
+      </c>
+      <c r="J370" t="n">
+        <v>2459</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12654,12 +12834,14 @@
         <v>-26082.92442085379</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I371" t="n">
         <v>2462</v>
       </c>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>2459</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12693,10 +12875,14 @@
         <v>-26337.60362085379</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>2469</v>
+      </c>
+      <c r="J372" t="n">
+        <v>2459</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12730,12 +12916,14 @@
         <v>-26117.74312085379</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I373" t="n">
         <v>2462</v>
       </c>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>2459</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12769,10 +12957,14 @@
         <v>-26113.56322085379</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>2477</v>
+      </c>
+      <c r="J374" t="n">
+        <v>2459</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12806,10 +12998,14 @@
         <v>-26113.56322085379</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>2485</v>
+      </c>
+      <c r="J375" t="n">
+        <v>2459</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12843,10 +13039,14 @@
         <v>-25558.27262085379</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>2485</v>
+      </c>
+      <c r="J376" t="n">
+        <v>2459</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12880,10 +13080,14 @@
         <v>-26064.41002085379</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>2487</v>
+      </c>
+      <c r="J377" t="n">
+        <v>2459</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12917,10 +13121,14 @@
         <v>-26064.41002085379</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>2478</v>
+      </c>
+      <c r="J378" t="n">
+        <v>2459</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12954,10 +13162,14 @@
         <v>-26061.40402085379</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>2478</v>
+      </c>
+      <c r="J379" t="n">
+        <v>2459</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12991,12 +13203,14 @@
         <v>-26060.40402085379</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I380" t="n">
         <v>2483</v>
       </c>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>2459</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13033,7 +13247,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>2459</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13067,12 +13283,14 @@
         <v>-25749.35792085379</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I382" t="n">
         <v>2492</v>
       </c>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>2459</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13109,7 +13327,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>2459</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13146,7 +13366,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>2459</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13183,7 +13405,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>2459</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13220,7 +13444,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>2459</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13257,7 +13483,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>2459</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13291,10 +13519,14 @@
         <v>-25741.35792085379</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>2499</v>
+      </c>
+      <c r="J388" t="n">
+        <v>2459</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13328,10 +13560,14 @@
         <v>-25741.35792085379</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>2499</v>
+      </c>
+      <c r="J389" t="n">
+        <v>2459</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13365,10 +13601,14 @@
         <v>-25741.35792085379</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>2499</v>
+      </c>
+      <c r="J390" t="n">
+        <v>2459</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13402,10 +13642,14 @@
         <v>-25844.35792085379</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>2499</v>
+      </c>
+      <c r="J391" t="n">
+        <v>2459</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13439,10 +13683,14 @@
         <v>-26566.92392085379</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>2496</v>
+      </c>
+      <c r="J392" t="n">
+        <v>2459</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13476,10 +13724,14 @@
         <v>-26443.89570000545</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>2495</v>
+      </c>
+      <c r="J393" t="n">
+        <v>2459</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13513,10 +13765,14 @@
         <v>-26431.12250000545</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>2502</v>
+      </c>
+      <c r="J394" t="n">
+        <v>2459</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13550,10 +13806,14 @@
         <v>-26500.93390000545</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>2504</v>
+      </c>
+      <c r="J395" t="n">
+        <v>2459</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13587,10 +13847,14 @@
         <v>-25911.01890000545</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>2502</v>
+      </c>
+      <c r="J396" t="n">
+        <v>2459</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13624,10 +13888,14 @@
         <v>-25911.01890000545</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>2516</v>
+      </c>
+      <c r="J397" t="n">
+        <v>2459</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13661,10 +13929,14 @@
         <v>-25769.23240000545</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>2516</v>
+      </c>
+      <c r="J398" t="n">
+        <v>2459</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13701,7 +13973,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>2459</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13735,10 +14009,14 @@
         <v>-23529.68414357097</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>2530</v>
+      </c>
+      <c r="J400" t="n">
+        <v>2459</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13772,10 +14050,14 @@
         <v>-23926.10261212206</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>2541</v>
+      </c>
+      <c r="J401" t="n">
+        <v>2459</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13809,10 +14091,14 @@
         <v>-23938.60261212206</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>2536</v>
+      </c>
+      <c r="J402" t="n">
+        <v>2459</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13846,10 +14132,14 @@
         <v>-23956.01881212206</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>2535</v>
+      </c>
+      <c r="J403" t="n">
+        <v>2459</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13883,10 +14173,14 @@
         <v>-24312.65881212206</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>2534</v>
+      </c>
+      <c r="J404" t="n">
+        <v>2459</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13920,10 +14214,14 @@
         <v>-24317.70271212206</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>2530</v>
+      </c>
+      <c r="J405" t="n">
+        <v>2459</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13960,7 +14258,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>2459</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13997,7 +14297,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>2459</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14034,7 +14336,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>2459</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14071,7 +14375,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>2459</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14108,7 +14414,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>2459</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14145,7 +14453,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>2459</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14182,7 +14492,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>2459</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14219,7 +14531,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>2459</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14256,7 +14570,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>2459</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14293,7 +14609,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>2459</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14330,7 +14648,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>2459</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14367,7 +14687,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>2459</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14404,7 +14726,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>2459</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14441,7 +14765,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>2459</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14475,10 +14801,14 @@
         <v>-19039.32991212207</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>2545</v>
+      </c>
+      <c r="J420" t="n">
+        <v>2459</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14512,10 +14842,14 @@
         <v>-17949.80441212207</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>2547</v>
+      </c>
+      <c r="J421" t="n">
+        <v>2459</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14552,7 +14886,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>2459</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14589,7 +14925,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>2459</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14626,7 +14964,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>2459</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14663,7 +15003,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>2459</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14700,7 +15042,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>2459</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14737,7 +15081,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>2459</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14774,7 +15120,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>2459</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14811,7 +15159,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>2459</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14848,7 +15198,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>2459</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14885,7 +15237,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>2459</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14922,7 +15276,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>2459</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14959,7 +15315,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>2459</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14996,7 +15354,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>2459</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15033,7 +15393,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>2459</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15070,7 +15432,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>2459</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15107,7 +15471,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>2459</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15144,7 +15510,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>2459</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15181,7 +15549,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>2459</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15218,7 +15588,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>2459</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15255,7 +15627,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>2459</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15292,7 +15666,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>2459</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15329,7 +15705,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>2459</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15366,7 +15744,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>2459</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15403,7 +15783,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>2459</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15440,7 +15822,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>2459</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15477,7 +15861,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>2459</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15514,7 +15900,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>2459</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15551,7 +15939,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>2459</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15588,7 +15978,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>2459</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15625,7 +16017,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>2459</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15662,7 +16056,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>2459</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15699,7 +16095,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>2459</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15736,7 +16134,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>2459</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15773,7 +16173,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>2459</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15810,7 +16212,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>2459</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15847,7 +16251,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>2459</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15884,7 +16290,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>2459</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15921,7 +16329,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>2459</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15958,7 +16368,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>2459</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15995,7 +16407,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>2459</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16032,7 +16446,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>2459</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16069,7 +16485,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>2459</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16106,7 +16524,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>2459</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16143,7 +16563,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>2459</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16180,7 +16602,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>2459</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16217,7 +16641,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>2459</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16254,7 +16680,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>2459</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16291,7 +16719,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>2459</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16328,7 +16758,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>2459</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16365,7 +16797,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>2459</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16402,7 +16836,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>2459</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16439,7 +16875,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>2459</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16476,7 +16914,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>2459</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16513,7 +16953,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>2459</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16550,7 +16992,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>2459</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16587,7 +17031,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>2459</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16624,7 +17070,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>2459</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16661,7 +17109,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>2459</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16698,7 +17148,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>2459</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16735,7 +17187,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>2459</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16772,7 +17226,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>2459</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16809,7 +17265,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>2459</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16846,7 +17304,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>2459</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16883,7 +17343,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>2459</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16920,7 +17382,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>2459</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16957,7 +17421,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>2459</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16969,6 +17435,6 @@
       <c r="M487" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest LINK.xlsx
+++ b/BackTest/2020-01-11 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1276,7 +1276,7 @@
         <v>2790.280589440159</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>2726.066389440159</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>3651.167289440159</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>3532.159689440159</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>3533.729389440159</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>3553.455589440159</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>3553.455589440159</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>3560.171289440159</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>3560.171289440159</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>3604.383989440159</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>2064.091289440159</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>2530.427989440159</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>5549.69328944016</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>4736.78866340302</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>4736.78866340302</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>4737.28866340302</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>4737.28866340302</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>5064.24886340302</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>5064.24886340302</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>5467.47186340302</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>6736.023702095615</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>6271.510602095615</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>6145.225002095614</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>2141.570702095614</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>2141.570702095614</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>1448.406202095614</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>1448.406202095614</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>1348.406202095614</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>1333.375302095614</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>1167.570002095614</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>884.4549020956144</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>816.5988020956145</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>854.6082020956145</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1213.447490213637</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-495.7112097863633</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-2147.072809786363</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-2240.192809786363</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1172.378784065471</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-383.6556210733449</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-383.6556210733449</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-383.6556210733449</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-382.6556210733449</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-382.6556210733449</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-4180.526521073345</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-5953.318021073345</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-6480.625021073345</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-7481.924821073345</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-7480.924821073345</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-9835.767621073344</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-9834.767621073344</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-9834.767621073344</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-9815.473821073345</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-9744.456105799907</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-11657.41100579991</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-10375.10650579991</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-9726.478505799907</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-7406.649929924421</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-7797.794005799907</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-7650.173805799906</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-7750.173805799906</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-3770.840405799906</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-3782.852605799907</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-3702.080505799906</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-3632.793305799906</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-3648.902905799906</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-6198.626105799905</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-6198.626105799905</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-6198.626105799905</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-6250.268305799906</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-6090.995664361281</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-10191.21486436128</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-10191.21486436128</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-10191.21486436128</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-12477.63596436128</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-13377.63596436128</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-13375.63596436128</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-13675.16006436128</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-13797.41243423938</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-13688.50773423938</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-13711.96503423938</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-13711.96503423938</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-15711.96503423938</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-16902.95753423938</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-16968.22463423938</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-17141.02063423938</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-17141.02063423938</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-16697.99423423938</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-16699.99423423938</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-16457.06143423938</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-16611.60963423938</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-15552.48853423938</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-15353.11963423938</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-15552.48853423938</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-15665.10913423938</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-15665.10913423938</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-17839.12663423938</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-4837.878326633048</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-4870.918826633048</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-5175.055326633048</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-5175.055326633048</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-5463.780426633048</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-5462.780426633048</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-5464.244626633048</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-5494.244626633048</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-13281.63712663305</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-13151.03562663305</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-13342.07572663305</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-13842.07572663305</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-13843.07572663305</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11176,10 +11176,14 @@
         <v>-17812.11314594257</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>2460</v>
+      </c>
+      <c r="J327" t="n">
+        <v>2460</v>
+      </c>
       <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
@@ -11209,11 +11213,19 @@
         <v>-17811.11314594257</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>2466</v>
+      </c>
+      <c r="J328" t="n">
+        <v>2460</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11245,8 +11257,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>2460</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11539,11 +11557,17 @@
         <v>-26599.30340000545</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>2450</v>
+      </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +11596,17 @@
         <v>-26558.32560000545</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>2449</v>
+      </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11610,10 +11640,12 @@
       <c r="I340" t="n">
         <v>2459</v>
       </c>
-      <c r="J340" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11647,12 +11679,10 @@
       <c r="I341" t="n">
         <v>2459</v>
       </c>
-      <c r="J341" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L341" t="n">
@@ -11688,12 +11718,10 @@
       <c r="I342" t="n">
         <v>2462</v>
       </c>
-      <c r="J342" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L342" t="n">
@@ -11729,9 +11757,7 @@
       <c r="I343" t="n">
         <v>2466</v>
       </c>
-      <c r="J343" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11770,9 +11796,7 @@
       <c r="I344" t="n">
         <v>2467</v>
       </c>
-      <c r="J344" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11811,9 +11835,7 @@
       <c r="I345" t="n">
         <v>2467</v>
       </c>
-      <c r="J345" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11847,14 +11869,10 @@
         <v>-24635.28150000545</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>2468</v>
-      </c>
-      <c r="J346" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11888,14 +11906,10 @@
         <v>-24635.28150000545</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>2463</v>
-      </c>
-      <c r="J347" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11929,14 +11943,10 @@
         <v>-24135.28150000545</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>2463</v>
-      </c>
-      <c r="J348" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11970,14 +11980,10 @@
         <v>-23904.69140000545</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>2470</v>
-      </c>
-      <c r="J349" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12011,14 +12017,10 @@
         <v>-24105.00140000545</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>2474</v>
-      </c>
-      <c r="J350" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12055,9 +12057,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12094,9 +12094,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12133,9 +12131,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12172,9 +12168,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12211,9 +12205,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12250,9 +12242,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12289,9 +12279,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12328,9 +12316,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12367,9 +12353,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12406,9 +12390,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12445,9 +12427,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12484,9 +12464,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12523,9 +12501,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12562,9 +12538,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12601,9 +12575,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12640,9 +12612,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12679,9 +12649,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12718,9 +12686,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12757,9 +12723,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12793,14 +12757,10 @@
         <v>-26202.29792085379</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>2467</v>
-      </c>
-      <c r="J370" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12834,14 +12794,10 @@
         <v>-26082.92442085379</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>2462</v>
-      </c>
-      <c r="J371" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12875,14 +12831,10 @@
         <v>-26337.60362085379</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>2469</v>
-      </c>
-      <c r="J372" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12916,14 +12868,10 @@
         <v>-26117.74312085379</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>2462</v>
-      </c>
-      <c r="J373" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12957,14 +12905,10 @@
         <v>-26113.56322085379</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>2477</v>
-      </c>
-      <c r="J374" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12998,14 +12942,10 @@
         <v>-26113.56322085379</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>2485</v>
-      </c>
-      <c r="J375" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13039,14 +12979,10 @@
         <v>-25558.27262085379</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>2485</v>
-      </c>
-      <c r="J376" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13080,14 +13016,10 @@
         <v>-26064.41002085379</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>2487</v>
-      </c>
-      <c r="J377" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13121,14 +13053,10 @@
         <v>-26064.41002085379</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>2478</v>
-      </c>
-      <c r="J378" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13162,14 +13090,10 @@
         <v>-26061.40402085379</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>2478</v>
-      </c>
-      <c r="J379" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13203,14 +13127,10 @@
         <v>-26060.40402085379</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>2483</v>
-      </c>
-      <c r="J380" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13247,9 +13167,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13283,14 +13201,10 @@
         <v>-25749.35792085379</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>2492</v>
-      </c>
-      <c r="J382" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13327,9 +13241,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13366,9 +13278,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13405,9 +13315,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13444,9 +13352,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13483,9 +13389,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>2459</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13519,14 +13423,10 @@
         <v>-25741.35792085379</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>2499</v>
-      </c>
-      <c r="J388" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13560,14 +13460,10 @@
         <v>-25741.35792085379</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>2499</v>
-      </c>
-      <c r="J389" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13601,14 +13497,10 @@
         <v>-25741.35792085379</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>2499</v>
-      </c>
-      <c r="J390" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13642,14 +13534,10 @@
         <v>-25844.35792085379</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>2499</v>
-      </c>
-      <c r="J391" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13683,14 +13571,10 @@
         <v>-26566.92392085379</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>2496</v>
-      </c>
-      <c r="J392" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13724,14 +13608,10 @@
         <v>-26443.89570000545</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>2495</v>
-      </c>
-      <c r="J393" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13765,14 +13645,10 @@
         <v>-26431.12250000545</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>2502</v>
-      </c>
-      <c r="J394" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13806,14 +13682,10 @@
         <v>-26500.93390000545</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>2504</v>
-      </c>
-      <c r="J395" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13847,14 +13719,10 @@
         <v>-25911.01890000545</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>2502</v>
-      </c>
-      <c r="J396" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13888,14 +13756,10 @@
         <v>-25911.01890000545</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>2516</v>
-      </c>
-      <c r="J397" t="n">
-        <v>2459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13929,22 +13793,16 @@
         <v>-25769.23240000545</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>2516</v>
-      </c>
-      <c r="J398" t="n">
-        <v>2459</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L398" t="n">
-        <v>1</v>
-      </c>
+      <c r="L398" t="inlineStr"/>
       <c r="M398" t="inlineStr"/>
     </row>
     <row r="399">
@@ -13970,17 +13828,11 @@
         <v>-24298.93680000545</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14009,19 +13861,11 @@
         <v>-23529.68414357097</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>2530</v>
-      </c>
-      <c r="J400" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14050,19 +13894,11 @@
         <v>-23926.10261212206</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>2541</v>
-      </c>
-      <c r="J401" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14091,19 +13927,11 @@
         <v>-23938.60261212206</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>2536</v>
-      </c>
-      <c r="J402" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14132,19 +13960,11 @@
         <v>-23956.01881212206</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>2535</v>
-      </c>
-      <c r="J403" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14173,19 +13993,11 @@
         <v>-24312.65881212206</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>2534</v>
-      </c>
-      <c r="J404" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14214,19 +14026,11 @@
         <v>-24317.70271212206</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>2530</v>
-      </c>
-      <c r="J405" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14258,14 +14062,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14297,14 +14095,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14336,14 +14128,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14375,14 +14161,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14414,14 +14194,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14453,14 +14227,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14492,14 +14260,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14531,14 +14293,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14570,14 +14326,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14609,14 +14359,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14648,14 +14392,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14687,14 +14425,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14726,14 +14458,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14765,14 +14491,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14801,19 +14521,11 @@
         <v>-19039.32991212207</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>2545</v>
-      </c>
-      <c r="J420" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14842,19 +14554,11 @@
         <v>-17949.80441212207</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>2547</v>
-      </c>
-      <c r="J421" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14886,14 +14590,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14925,14 +14623,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14964,14 +14656,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15003,14 +14689,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15042,14 +14722,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15081,14 +14755,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15120,14 +14788,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15159,14 +14821,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15198,14 +14854,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15237,14 +14887,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15276,14 +14920,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15315,14 +14953,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15354,14 +14986,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15393,14 +15019,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15432,14 +15052,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15471,14 +15085,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15510,14 +15118,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15549,14 +15151,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15588,14 +15184,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15627,14 +15217,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15666,14 +15250,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15705,14 +15283,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15744,14 +15316,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15783,14 +15349,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15822,14 +15382,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15861,14 +15415,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15900,14 +15448,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15939,14 +15481,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15978,14 +15514,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16017,14 +15547,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16056,14 +15580,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16095,14 +15613,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16134,14 +15646,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16173,14 +15679,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16212,14 +15712,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16251,14 +15745,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16290,14 +15778,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16329,14 +15811,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16368,14 +15844,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16407,14 +15877,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16446,14 +15910,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16485,14 +15943,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16524,14 +15976,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16563,14 +16009,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16602,14 +16042,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16641,14 +16075,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16680,14 +16108,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16719,14 +16141,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16758,14 +16174,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16797,14 +16207,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16836,14 +16240,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16875,14 +16273,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16914,14 +16306,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16953,14 +16339,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16992,14 +16372,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17031,14 +16405,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17070,14 +16438,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17109,14 +16471,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17148,14 +16504,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17187,14 +16537,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17226,14 +16570,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17265,14 +16603,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17304,14 +16636,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17343,14 +16669,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17382,14 +16702,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17421,20 +16735,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>2459</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
       <c r="M487" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest LINK.xlsx
+++ b/BackTest/2020-01-11 BackTest LINK.xlsx
@@ -1276,7 +1276,7 @@
         <v>2790.280589440159</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>2726.066389440159</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>3651.167289440159</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>3532.159689440159</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>3533.729389440159</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>3553.455589440159</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>3553.455589440159</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>3560.171289440159</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>3560.171289440159</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>3604.383989440159</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>2064.091289440159</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>2530.427989440159</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>5549.69328944016</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>4736.78866340302</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>4736.78866340302</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>4737.28866340302</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>4737.28866340302</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>5064.24886340302</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>5064.24886340302</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>5467.47186340302</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>6736.023702095615</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>6271.510602095615</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>6145.225002095614</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>2141.570702095614</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>2141.570702095614</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>1448.406202095614</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>1448.406202095614</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>1348.406202095614</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>1333.375302095614</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>1167.570002095614</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>884.4549020956144</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>816.5988020956145</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>854.6082020956145</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1213.447490213637</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1172.378784065471</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-383.6556210733449</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-383.6556210733449</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-383.6556210733449</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-382.6556210733449</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-382.6556210733449</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-4180.526521073345</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-5953.318021073345</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-6480.625021073345</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-7481.924821073345</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-7480.924821073345</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-9835.767621073344</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-9834.767621073344</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-9834.767621073344</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-9815.473821073345</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-10375.10650579991</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-7406.649929924421</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-7406.649929924421</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-7406.649929924421</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-7406.649929924421</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-4501.685705799906</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-4501.685705799906</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-4501.685705799906</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-4651.685705799906</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-4582.910105799906</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-4582.910105799906</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-4594.289605799906</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-4594.289605799906</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-7320.772805799907</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-7769.605605799907</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-7797.794005799907</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-3648.902905799906</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-4814.414795272799</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -11176,14 +11176,10 @@
         <v>-17812.11314594257</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>2460</v>
-      </c>
-      <c r="J327" t="n">
-        <v>2460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
@@ -11213,19 +11209,11 @@
         <v>-17811.11314594257</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>2466</v>
-      </c>
-      <c r="J328" t="n">
-        <v>2460</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11257,14 +11245,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>2460</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11557,1992 +11539,1850 @@
         <v>-26599.30340000545</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>2450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>2456</v>
+      </c>
+      <c r="C339" t="n">
+        <v>2459</v>
+      </c>
+      <c r="D339" t="n">
+        <v>2459</v>
+      </c>
+      <c r="E339" t="n">
+        <v>2456</v>
+      </c>
+      <c r="F339" t="n">
+        <v>40.9778</v>
+      </c>
+      <c r="G339" t="n">
+        <v>-26558.32560000545</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>2459</v>
+      </c>
+      <c r="C340" t="n">
+        <v>2459</v>
+      </c>
+      <c r="D340" t="n">
+        <v>2459</v>
+      </c>
+      <c r="E340" t="n">
+        <v>2459</v>
+      </c>
+      <c r="F340" t="n">
+        <v>27.2208</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-26558.32560000545</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>2462</v>
+      </c>
+      <c r="C341" t="n">
+        <v>2462</v>
+      </c>
+      <c r="D341" t="n">
+        <v>2462</v>
+      </c>
+      <c r="E341" t="n">
+        <v>2462</v>
+      </c>
+      <c r="F341" t="n">
+        <v>1645.1302</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-24913.19540000545</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>2459</v>
+      </c>
+      <c r="C342" t="n">
+        <v>2466</v>
+      </c>
+      <c r="D342" t="n">
+        <v>2466</v>
+      </c>
+      <c r="E342" t="n">
+        <v>2459</v>
+      </c>
+      <c r="F342" t="n">
+        <v>273.045</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-24640.15040000545</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>2466</v>
+      </c>
+      <c r="C343" t="n">
+        <v>2467</v>
+      </c>
+      <c r="D343" t="n">
+        <v>2467</v>
+      </c>
+      <c r="E343" t="n">
+        <v>2466</v>
+      </c>
+      <c r="F343" t="n">
+        <v>61.9621</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-24578.18830000545</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>2467</v>
+      </c>
+      <c r="C344" t="n">
+        <v>2467</v>
+      </c>
+      <c r="D344" t="n">
+        <v>2467</v>
+      </c>
+      <c r="E344" t="n">
+        <v>2467</v>
+      </c>
+      <c r="F344" t="n">
+        <v>18</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-24578.18830000545</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>2468</v>
+      </c>
+      <c r="C345" t="n">
+        <v>2468</v>
+      </c>
+      <c r="D345" t="n">
+        <v>2468</v>
+      </c>
+      <c r="E345" t="n">
+        <v>2468</v>
+      </c>
+      <c r="F345" t="n">
+        <v>1.0913</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-24577.09700000545</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>2463</v>
+      </c>
+      <c r="C346" t="n">
+        <v>2463</v>
+      </c>
+      <c r="D346" t="n">
+        <v>2463</v>
+      </c>
+      <c r="E346" t="n">
+        <v>2463</v>
+      </c>
+      <c r="F346" t="n">
+        <v>58.1845</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-24635.28150000545</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>2465</v>
+      </c>
+      <c r="C347" t="n">
+        <v>2463</v>
+      </c>
+      <c r="D347" t="n">
+        <v>2469</v>
+      </c>
+      <c r="E347" t="n">
+        <v>2463</v>
+      </c>
+      <c r="F347" t="n">
+        <v>217.0189</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-24635.28150000545</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>2469</v>
+      </c>
+      <c r="C348" t="n">
+        <v>2470</v>
+      </c>
+      <c r="D348" t="n">
+        <v>2470</v>
+      </c>
+      <c r="E348" t="n">
+        <v>2469</v>
+      </c>
+      <c r="F348" t="n">
+        <v>500</v>
+      </c>
+      <c r="G348" t="n">
+        <v>-24135.28150000545</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>2474</v>
+      </c>
+      <c r="C349" t="n">
+        <v>2474</v>
+      </c>
+      <c r="D349" t="n">
+        <v>2474</v>
+      </c>
+      <c r="E349" t="n">
+        <v>2474</v>
+      </c>
+      <c r="F349" t="n">
+        <v>230.5901</v>
+      </c>
+      <c r="G349" t="n">
+        <v>-23904.69140000545</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>2472</v>
+      </c>
+      <c r="C350" t="n">
+        <v>2471</v>
+      </c>
+      <c r="D350" t="n">
+        <v>2472</v>
+      </c>
+      <c r="E350" t="n">
+        <v>2471</v>
+      </c>
+      <c r="F350" t="n">
+        <v>200.31</v>
+      </c>
+      <c r="G350" t="n">
+        <v>-24105.00140000545</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>2474</v>
+      </c>
+      <c r="C351" t="n">
+        <v>2474</v>
+      </c>
+      <c r="D351" t="n">
+        <v>2474</v>
+      </c>
+      <c r="E351" t="n">
+        <v>2474</v>
+      </c>
+      <c r="F351" t="n">
+        <v>96.1692</v>
+      </c>
+      <c r="G351" t="n">
+        <v>-24008.83220000545</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>2469</v>
+      </c>
+      <c r="C352" t="n">
+        <v>2469</v>
+      </c>
+      <c r="D352" t="n">
+        <v>2469</v>
+      </c>
+      <c r="E352" t="n">
+        <v>2469</v>
+      </c>
+      <c r="F352" t="n">
+        <v>1</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-24009.83220000545</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>2469</v>
+      </c>
+      <c r="C353" t="n">
+        <v>2469</v>
+      </c>
+      <c r="D353" t="n">
+        <v>2469</v>
+      </c>
+      <c r="E353" t="n">
+        <v>2469</v>
+      </c>
+      <c r="F353" t="n">
+        <v>157.5348</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-24009.83220000545</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>2474</v>
+      </c>
+      <c r="C354" t="n">
+        <v>2476</v>
+      </c>
+      <c r="D354" t="n">
+        <v>2476</v>
+      </c>
+      <c r="E354" t="n">
+        <v>2474</v>
+      </c>
+      <c r="F354" t="n">
+        <v>740</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-23269.83220000545</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>2480</v>
+      </c>
+      <c r="C355" t="n">
+        <v>2482</v>
+      </c>
+      <c r="D355" t="n">
+        <v>2482</v>
+      </c>
+      <c r="E355" t="n">
+        <v>2480</v>
+      </c>
+      <c r="F355" t="n">
+        <v>240.3592</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-23029.47300000545</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>2486</v>
+      </c>
+      <c r="C356" t="n">
+        <v>2486</v>
+      </c>
+      <c r="D356" t="n">
+        <v>2486</v>
+      </c>
+      <c r="E356" t="n">
+        <v>2486</v>
+      </c>
+      <c r="F356" t="n">
+        <v>7.8186</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-23021.65440000545</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>2489</v>
+      </c>
+      <c r="C357" t="n">
+        <v>2489</v>
+      </c>
+      <c r="D357" t="n">
+        <v>2489</v>
+      </c>
+      <c r="E357" t="n">
+        <v>2489</v>
+      </c>
+      <c r="F357" t="n">
+        <v>102.0389</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-22919.61550000545</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>2482</v>
+      </c>
+      <c r="C358" t="n">
+        <v>2482</v>
+      </c>
+      <c r="D358" t="n">
+        <v>2482</v>
+      </c>
+      <c r="E358" t="n">
+        <v>2482</v>
+      </c>
+      <c r="F358" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-22920.45550000545</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>2487</v>
+      </c>
+      <c r="C359" t="n">
+        <v>2487</v>
+      </c>
+      <c r="D359" t="n">
+        <v>2487</v>
+      </c>
+      <c r="E359" t="n">
+        <v>2487</v>
+      </c>
+      <c r="F359" t="n">
+        <v>434.1809</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-22486.27460000545</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>2497</v>
+      </c>
+      <c r="C360" t="n">
+        <v>2497</v>
+      </c>
+      <c r="D360" t="n">
+        <v>2497</v>
+      </c>
+      <c r="E360" t="n">
+        <v>2497</v>
+      </c>
+      <c r="F360" t="n">
+        <v>190.1392</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-22296.13540000545</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>2495</v>
+      </c>
+      <c r="C361" t="n">
+        <v>2499</v>
+      </c>
+      <c r="D361" t="n">
+        <v>2499</v>
+      </c>
+      <c r="E361" t="n">
+        <v>2491</v>
+      </c>
+      <c r="F361" t="n">
+        <v>3864.558579151661</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-18431.57682085379</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>2498</v>
+      </c>
+      <c r="C362" t="n">
+        <v>2499</v>
+      </c>
+      <c r="D362" t="n">
+        <v>2499</v>
+      </c>
+      <c r="E362" t="n">
+        <v>2498</v>
+      </c>
+      <c r="F362" t="n">
+        <v>312.3465</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-18431.57682085379</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>2493</v>
+      </c>
+      <c r="C363" t="n">
+        <v>2493</v>
+      </c>
+      <c r="D363" t="n">
+        <v>2493</v>
+      </c>
+      <c r="E363" t="n">
+        <v>2493</v>
+      </c>
+      <c r="F363" t="n">
+        <v>120.1796</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-18551.75642085379</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>2488</v>
+      </c>
+      <c r="C364" t="n">
+        <v>2488</v>
+      </c>
+      <c r="D364" t="n">
+        <v>2488</v>
+      </c>
+      <c r="E364" t="n">
+        <v>2488</v>
+      </c>
+      <c r="F364" t="n">
+        <v>15.4997</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-18567.25612085379</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>2488</v>
+      </c>
+      <c r="C365" t="n">
+        <v>2487</v>
+      </c>
+      <c r="D365" t="n">
+        <v>2488</v>
+      </c>
+      <c r="E365" t="n">
+        <v>2487</v>
+      </c>
+      <c r="F365" t="n">
+        <v>7115.4262</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-25682.68232085379</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>2480</v>
+      </c>
+      <c r="C366" t="n">
+        <v>2480</v>
+      </c>
+      <c r="D366" t="n">
+        <v>2480</v>
+      </c>
+      <c r="E366" t="n">
+        <v>2480</v>
+      </c>
+      <c r="F366" t="n">
+        <v>20.137</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-25702.81932085379</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>2482</v>
+      </c>
+      <c r="C367" t="n">
+        <v>2482</v>
+      </c>
+      <c r="D367" t="n">
+        <v>2482</v>
+      </c>
+      <c r="E367" t="n">
+        <v>2482</v>
+      </c>
+      <c r="F367" t="n">
+        <v>3.2911</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-25699.52822085379</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>2473</v>
+      </c>
+      <c r="C368" t="n">
+        <v>2472</v>
+      </c>
+      <c r="D368" t="n">
+        <v>2473</v>
+      </c>
+      <c r="E368" t="n">
+        <v>2472</v>
+      </c>
+      <c r="F368" t="n">
+        <v>20.0866</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-25719.61482085379</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>2469</v>
+      </c>
+      <c r="C369" t="n">
+        <v>2467</v>
+      </c>
+      <c r="D369" t="n">
+        <v>2469</v>
+      </c>
+      <c r="E369" t="n">
+        <v>2467</v>
+      </c>
+      <c r="F369" t="n">
+        <v>443.6415</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-26163.25632085379</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>2462</v>
+      </c>
+      <c r="C370" t="n">
+        <v>2462</v>
+      </c>
+      <c r="D370" t="n">
+        <v>2462</v>
+      </c>
+      <c r="E370" t="n">
+        <v>2462</v>
+      </c>
+      <c r="F370" t="n">
+        <v>39.0416</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-26202.29792085379</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>2469</v>
+      </c>
+      <c r="C371" t="n">
+        <v>2469</v>
+      </c>
+      <c r="D371" t="n">
+        <v>2469</v>
+      </c>
+      <c r="E371" t="n">
+        <v>2469</v>
+      </c>
+      <c r="F371" t="n">
+        <v>119.3735</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-26082.92442085379</v>
+      </c>
+      <c r="H371" t="n">
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>2462</v>
+      </c>
+      <c r="J371" t="n">
+        <v>2462</v>
+      </c>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>2462</v>
+      </c>
+      <c r="C372" t="n">
+        <v>2462</v>
+      </c>
+      <c r="D372" t="n">
+        <v>2462</v>
+      </c>
+      <c r="E372" t="n">
+        <v>2462</v>
+      </c>
+      <c r="F372" t="n">
+        <v>254.6792</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-26337.60362085379</v>
+      </c>
+      <c r="H372" t="n">
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>2469</v>
+      </c>
+      <c r="J372" t="n">
+        <v>2462</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>2477</v>
+      </c>
+      <c r="C373" t="n">
+        <v>2477</v>
+      </c>
+      <c r="D373" t="n">
+        <v>2477</v>
+      </c>
+      <c r="E373" t="n">
+        <v>2477</v>
+      </c>
+      <c r="F373" t="n">
+        <v>219.8605</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-26117.74312085379</v>
+      </c>
+      <c r="H373" t="n">
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>2462</v>
+      </c>
+      <c r="J373" t="n">
+        <v>2462</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>2485</v>
+      </c>
+      <c r="C374" t="n">
+        <v>2485</v>
+      </c>
+      <c r="D374" t="n">
+        <v>2485</v>
+      </c>
+      <c r="E374" t="n">
+        <v>2485</v>
+      </c>
+      <c r="F374" t="n">
+        <v>4.1799</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-26113.56322085379</v>
+      </c>
+      <c r="H374" t="n">
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>2477</v>
+      </c>
+      <c r="J374" t="n">
+        <v>2477</v>
+      </c>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>2485</v>
+      </c>
+      <c r="C375" t="n">
+        <v>2485</v>
+      </c>
+      <c r="D375" t="n">
+        <v>2485</v>
+      </c>
+      <c r="E375" t="n">
+        <v>2485</v>
+      </c>
+      <c r="F375" t="n">
+        <v>3.9238</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-26113.56322085379</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>2477</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>2487</v>
+      </c>
+      <c r="C376" t="n">
+        <v>2487</v>
+      </c>
+      <c r="D376" t="n">
+        <v>2487</v>
+      </c>
+      <c r="E376" t="n">
+        <v>2487</v>
+      </c>
+      <c r="F376" t="n">
+        <v>555.2906</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-25558.27262085379</v>
+      </c>
+      <c r="H376" t="n">
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>2485</v>
+      </c>
+      <c r="J376" t="n">
+        <v>2477</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>2487</v>
+      </c>
+      <c r="C377" t="n">
+        <v>2478</v>
+      </c>
+      <c r="D377" t="n">
+        <v>2487</v>
+      </c>
+      <c r="E377" t="n">
+        <v>2478</v>
+      </c>
+      <c r="F377" t="n">
+        <v>506.1374</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-26064.41002085379</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>2478</v>
+      </c>
+      <c r="C378" t="n">
+        <v>2478</v>
+      </c>
+      <c r="D378" t="n">
+        <v>2478</v>
+      </c>
+      <c r="E378" t="n">
+        <v>2478</v>
+      </c>
+      <c r="F378" t="n">
+        <v>162</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-26064.41002085379</v>
+      </c>
+      <c r="H378" t="n">
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>2478</v>
+      </c>
+      <c r="J378" t="n">
+        <v>2478</v>
+      </c>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>2483</v>
+      </c>
+      <c r="C379" t="n">
+        <v>2483</v>
+      </c>
+      <c r="D379" t="n">
+        <v>2483</v>
+      </c>
+      <c r="E379" t="n">
+        <v>2483</v>
+      </c>
+      <c r="F379" t="n">
+        <v>3.006</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-26061.40402085379</v>
+      </c>
+      <c r="H379" t="n">
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>2478</v>
+      </c>
+      <c r="J379" t="n">
+        <v>2478</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>2491</v>
+      </c>
+      <c r="C380" t="n">
+        <v>2491</v>
+      </c>
+      <c r="D380" t="n">
+        <v>2491</v>
+      </c>
+      <c r="E380" t="n">
+        <v>2491</v>
+      </c>
+      <c r="F380" t="n">
+        <v>1</v>
+      </c>
+      <c r="G380" t="n">
+        <v>-26060.40402085379</v>
+      </c>
+      <c r="H380" t="n">
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>2483</v>
+      </c>
+      <c r="J380" t="n">
+        <v>2478</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>2486</v>
+      </c>
+      <c r="C381" t="n">
+        <v>2492</v>
+      </c>
+      <c r="D381" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E381" t="n">
+        <v>2484</v>
+      </c>
+      <c r="F381" t="n">
+        <v>310.0461</v>
+      </c>
+      <c r="G381" t="n">
+        <v>-25750.35792085379</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>2495</v>
+      </c>
+      <c r="C382" t="n">
+        <v>2495</v>
+      </c>
+      <c r="D382" t="n">
+        <v>2495</v>
+      </c>
+      <c r="E382" t="n">
+        <v>2495</v>
+      </c>
+      <c r="F382" t="n">
+        <v>1</v>
+      </c>
+      <c r="G382" t="n">
+        <v>-25749.35792085379</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>2495</v>
+      </c>
+      <c r="C383" t="n">
+        <v>2496</v>
+      </c>
+      <c r="D383" t="n">
+        <v>2496</v>
+      </c>
+      <c r="E383" t="n">
+        <v>2495</v>
+      </c>
+      <c r="F383" t="n">
+        <v>6</v>
+      </c>
+      <c r="G383" t="n">
+        <v>-25743.35792085379</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>2496</v>
+      </c>
+      <c r="C384" t="n">
+        <v>2496</v>
+      </c>
+      <c r="D384" t="n">
+        <v>2497</v>
+      </c>
+      <c r="E384" t="n">
+        <v>2496</v>
+      </c>
+      <c r="F384" t="n">
+        <v>6</v>
+      </c>
+      <c r="G384" t="n">
+        <v>-25743.35792085379</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>2496</v>
+      </c>
+      <c r="C385" t="n">
+        <v>2496</v>
+      </c>
+      <c r="D385" t="n">
+        <v>2496</v>
+      </c>
+      <c r="E385" t="n">
+        <v>2496</v>
+      </c>
+      <c r="F385" t="n">
+        <v>5</v>
+      </c>
+      <c r="G385" t="n">
+        <v>-25743.35792085379</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="n">
+        <v>1</v>
+      </c>
+      <c r="M385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>2496</v>
+      </c>
+      <c r="C386" t="n">
+        <v>2496</v>
+      </c>
+      <c r="D386" t="n">
+        <v>2496</v>
+      </c>
+      <c r="E386" t="n">
+        <v>2496</v>
+      </c>
+      <c r="F386" t="n">
+        <v>1</v>
+      </c>
+      <c r="G386" t="n">
+        <v>-25743.35792085379</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>2499</v>
+      </c>
+      <c r="C387" t="n">
+        <v>2499</v>
+      </c>
+      <c r="D387" t="n">
+        <v>2499</v>
+      </c>
+      <c r="E387" t="n">
+        <v>2499</v>
+      </c>
+      <c r="F387" t="n">
+        <v>2</v>
+      </c>
+      <c r="G387" t="n">
+        <v>-25741.35792085379</v>
+      </c>
+      <c r="H387" t="n">
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>2496</v>
+      </c>
+      <c r="J387" t="n">
+        <v>2496</v>
+      </c>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="n">
+        <v>1</v>
+      </c>
+      <c r="M387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>2499</v>
+      </c>
+      <c r="C388" t="n">
+        <v>2499</v>
+      </c>
+      <c r="D388" t="n">
+        <v>2499</v>
+      </c>
+      <c r="E388" t="n">
+        <v>2499</v>
+      </c>
+      <c r="F388" t="n">
+        <v>33.8351</v>
+      </c>
+      <c r="G388" t="n">
+        <v>-25741.35792085379</v>
+      </c>
+      <c r="H388" t="n">
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>2499</v>
+      </c>
+      <c r="J388" t="n">
+        <v>2496</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L388" t="n">
+        <v>1</v>
+      </c>
+      <c r="M388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>2499</v>
+      </c>
+      <c r="C389" t="n">
+        <v>2499</v>
+      </c>
+      <c r="D389" t="n">
+        <v>2499</v>
+      </c>
+      <c r="E389" t="n">
+        <v>2499</v>
+      </c>
+      <c r="F389" t="n">
+        <v>2</v>
+      </c>
+      <c r="G389" t="n">
+        <v>-25741.35792085379</v>
+      </c>
+      <c r="H389" t="n">
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>2499</v>
+      </c>
+      <c r="J389" t="n">
+        <v>2496</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L389" t="n">
+        <v>1</v>
+      </c>
+      <c r="M389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>2499</v>
+      </c>
+      <c r="C390" t="n">
+        <v>2499</v>
+      </c>
+      <c r="D390" t="n">
+        <v>2499</v>
+      </c>
+      <c r="E390" t="n">
+        <v>2499</v>
+      </c>
+      <c r="F390" t="n">
+        <v>1</v>
+      </c>
+      <c r="G390" t="n">
+        <v>-25741.35792085379</v>
+      </c>
+      <c r="H390" t="n">
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>2499</v>
+      </c>
+      <c r="J390" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="n">
+        <v>1</v>
+      </c>
+      <c r="M390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>2498</v>
+      </c>
+      <c r="C391" t="n">
+        <v>2496</v>
+      </c>
+      <c r="D391" t="n">
+        <v>2498</v>
+      </c>
+      <c r="E391" t="n">
+        <v>2496</v>
+      </c>
+      <c r="F391" t="n">
+        <v>103</v>
+      </c>
+      <c r="G391" t="n">
+        <v>-25844.35792085379</v>
+      </c>
+      <c r="H391" t="n">
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>2499</v>
+      </c>
+      <c r="J391" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K391" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>2456</v>
-      </c>
-      <c r="C339" t="n">
-        <v>2459</v>
-      </c>
-      <c r="D339" t="n">
-        <v>2459</v>
-      </c>
-      <c r="E339" t="n">
-        <v>2456</v>
-      </c>
-      <c r="F339" t="n">
-        <v>40.9778</v>
-      </c>
-      <c r="G339" t="n">
-        <v>-26558.32560000545</v>
-      </c>
-      <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>2449</v>
-      </c>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>2459</v>
-      </c>
-      <c r="C340" t="n">
-        <v>2459</v>
-      </c>
-      <c r="D340" t="n">
-        <v>2459</v>
-      </c>
-      <c r="E340" t="n">
-        <v>2459</v>
-      </c>
-      <c r="F340" t="n">
-        <v>27.2208</v>
-      </c>
-      <c r="G340" t="n">
-        <v>-26558.32560000545</v>
-      </c>
-      <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>2459</v>
-      </c>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>2462</v>
-      </c>
-      <c r="C341" t="n">
-        <v>2462</v>
-      </c>
-      <c r="D341" t="n">
-        <v>2462</v>
-      </c>
-      <c r="E341" t="n">
-        <v>2462</v>
-      </c>
-      <c r="F341" t="n">
-        <v>1645.1302</v>
-      </c>
-      <c r="G341" t="n">
-        <v>-24913.19540000545</v>
-      </c>
-      <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>2459</v>
-      </c>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>2459</v>
-      </c>
-      <c r="C342" t="n">
-        <v>2466</v>
-      </c>
-      <c r="D342" t="n">
-        <v>2466</v>
-      </c>
-      <c r="E342" t="n">
-        <v>2459</v>
-      </c>
-      <c r="F342" t="n">
-        <v>273.045</v>
-      </c>
-      <c r="G342" t="n">
-        <v>-24640.15040000545</v>
-      </c>
-      <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>2462</v>
-      </c>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>2466</v>
-      </c>
-      <c r="C343" t="n">
-        <v>2467</v>
-      </c>
-      <c r="D343" t="n">
-        <v>2467</v>
-      </c>
-      <c r="E343" t="n">
-        <v>2466</v>
-      </c>
-      <c r="F343" t="n">
-        <v>61.9621</v>
-      </c>
-      <c r="G343" t="n">
-        <v>-24578.18830000545</v>
-      </c>
-      <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>2466</v>
-      </c>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>2467</v>
-      </c>
-      <c r="C344" t="n">
-        <v>2467</v>
-      </c>
-      <c r="D344" t="n">
-        <v>2467</v>
-      </c>
-      <c r="E344" t="n">
-        <v>2467</v>
-      </c>
-      <c r="F344" t="n">
-        <v>18</v>
-      </c>
-      <c r="G344" t="n">
-        <v>-24578.18830000545</v>
-      </c>
-      <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>2467</v>
-      </c>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>2468</v>
-      </c>
-      <c r="C345" t="n">
-        <v>2468</v>
-      </c>
-      <c r="D345" t="n">
-        <v>2468</v>
-      </c>
-      <c r="E345" t="n">
-        <v>2468</v>
-      </c>
-      <c r="F345" t="n">
-        <v>1.0913</v>
-      </c>
-      <c r="G345" t="n">
-        <v>-24577.09700000545</v>
-      </c>
-      <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>2467</v>
-      </c>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>2463</v>
-      </c>
-      <c r="C346" t="n">
-        <v>2463</v>
-      </c>
-      <c r="D346" t="n">
-        <v>2463</v>
-      </c>
-      <c r="E346" t="n">
-        <v>2463</v>
-      </c>
-      <c r="F346" t="n">
-        <v>58.1845</v>
-      </c>
-      <c r="G346" t="n">
-        <v>-24635.28150000545</v>
-      </c>
-      <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>2465</v>
-      </c>
-      <c r="C347" t="n">
-        <v>2463</v>
-      </c>
-      <c r="D347" t="n">
-        <v>2469</v>
-      </c>
-      <c r="E347" t="n">
-        <v>2463</v>
-      </c>
-      <c r="F347" t="n">
-        <v>217.0189</v>
-      </c>
-      <c r="G347" t="n">
-        <v>-24635.28150000545</v>
-      </c>
-      <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>2469</v>
-      </c>
-      <c r="C348" t="n">
-        <v>2470</v>
-      </c>
-      <c r="D348" t="n">
-        <v>2470</v>
-      </c>
-      <c r="E348" t="n">
-        <v>2469</v>
-      </c>
-      <c r="F348" t="n">
-        <v>500</v>
-      </c>
-      <c r="G348" t="n">
-        <v>-24135.28150000545</v>
-      </c>
-      <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>2474</v>
-      </c>
-      <c r="C349" t="n">
-        <v>2474</v>
-      </c>
-      <c r="D349" t="n">
-        <v>2474</v>
-      </c>
-      <c r="E349" t="n">
-        <v>2474</v>
-      </c>
-      <c r="F349" t="n">
-        <v>230.5901</v>
-      </c>
-      <c r="G349" t="n">
-        <v>-23904.69140000545</v>
-      </c>
-      <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>2472</v>
-      </c>
-      <c r="C350" t="n">
-        <v>2471</v>
-      </c>
-      <c r="D350" t="n">
-        <v>2472</v>
-      </c>
-      <c r="E350" t="n">
-        <v>2471</v>
-      </c>
-      <c r="F350" t="n">
-        <v>200.31</v>
-      </c>
-      <c r="G350" t="n">
-        <v>-24105.00140000545</v>
-      </c>
-      <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>2474</v>
-      </c>
-      <c r="C351" t="n">
-        <v>2474</v>
-      </c>
-      <c r="D351" t="n">
-        <v>2474</v>
-      </c>
-      <c r="E351" t="n">
-        <v>2474</v>
-      </c>
-      <c r="F351" t="n">
-        <v>96.1692</v>
-      </c>
-      <c r="G351" t="n">
-        <v>-24008.83220000545</v>
-      </c>
-      <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>2469</v>
-      </c>
-      <c r="C352" t="n">
-        <v>2469</v>
-      </c>
-      <c r="D352" t="n">
-        <v>2469</v>
-      </c>
-      <c r="E352" t="n">
-        <v>2469</v>
-      </c>
-      <c r="F352" t="n">
-        <v>1</v>
-      </c>
-      <c r="G352" t="n">
-        <v>-24009.83220000545</v>
-      </c>
-      <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>2469</v>
-      </c>
-      <c r="C353" t="n">
-        <v>2469</v>
-      </c>
-      <c r="D353" t="n">
-        <v>2469</v>
-      </c>
-      <c r="E353" t="n">
-        <v>2469</v>
-      </c>
-      <c r="F353" t="n">
-        <v>157.5348</v>
-      </c>
-      <c r="G353" t="n">
-        <v>-24009.83220000545</v>
-      </c>
-      <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>2474</v>
-      </c>
-      <c r="C354" t="n">
-        <v>2476</v>
-      </c>
-      <c r="D354" t="n">
-        <v>2476</v>
-      </c>
-      <c r="E354" t="n">
-        <v>2474</v>
-      </c>
-      <c r="F354" t="n">
-        <v>740</v>
-      </c>
-      <c r="G354" t="n">
-        <v>-23269.83220000545</v>
-      </c>
-      <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>2480</v>
-      </c>
-      <c r="C355" t="n">
-        <v>2482</v>
-      </c>
-      <c r="D355" t="n">
-        <v>2482</v>
-      </c>
-      <c r="E355" t="n">
-        <v>2480</v>
-      </c>
-      <c r="F355" t="n">
-        <v>240.3592</v>
-      </c>
-      <c r="G355" t="n">
-        <v>-23029.47300000545</v>
-      </c>
-      <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>2486</v>
-      </c>
-      <c r="C356" t="n">
-        <v>2486</v>
-      </c>
-      <c r="D356" t="n">
-        <v>2486</v>
-      </c>
-      <c r="E356" t="n">
-        <v>2486</v>
-      </c>
-      <c r="F356" t="n">
-        <v>7.8186</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-23021.65440000545</v>
-      </c>
-      <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>2489</v>
-      </c>
-      <c r="C357" t="n">
-        <v>2489</v>
-      </c>
-      <c r="D357" t="n">
-        <v>2489</v>
-      </c>
-      <c r="E357" t="n">
-        <v>2489</v>
-      </c>
-      <c r="F357" t="n">
-        <v>102.0389</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-22919.61550000545</v>
-      </c>
-      <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>2482</v>
-      </c>
-      <c r="C358" t="n">
-        <v>2482</v>
-      </c>
-      <c r="D358" t="n">
-        <v>2482</v>
-      </c>
-      <c r="E358" t="n">
-        <v>2482</v>
-      </c>
-      <c r="F358" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-22920.45550000545</v>
-      </c>
-      <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>2487</v>
-      </c>
-      <c r="C359" t="n">
-        <v>2487</v>
-      </c>
-      <c r="D359" t="n">
-        <v>2487</v>
-      </c>
-      <c r="E359" t="n">
-        <v>2487</v>
-      </c>
-      <c r="F359" t="n">
-        <v>434.1809</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-22486.27460000545</v>
-      </c>
-      <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>2497</v>
-      </c>
-      <c r="C360" t="n">
-        <v>2497</v>
-      </c>
-      <c r="D360" t="n">
-        <v>2497</v>
-      </c>
-      <c r="E360" t="n">
-        <v>2497</v>
-      </c>
-      <c r="F360" t="n">
-        <v>190.1392</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-22296.13540000545</v>
-      </c>
-      <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>2495</v>
-      </c>
-      <c r="C361" t="n">
-        <v>2499</v>
-      </c>
-      <c r="D361" t="n">
-        <v>2499</v>
-      </c>
-      <c r="E361" t="n">
-        <v>2491</v>
-      </c>
-      <c r="F361" t="n">
-        <v>3864.558579151661</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-18431.57682085379</v>
-      </c>
-      <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>2498</v>
-      </c>
-      <c r="C362" t="n">
-        <v>2499</v>
-      </c>
-      <c r="D362" t="n">
-        <v>2499</v>
-      </c>
-      <c r="E362" t="n">
-        <v>2498</v>
-      </c>
-      <c r="F362" t="n">
-        <v>312.3465</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-18431.57682085379</v>
-      </c>
-      <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>2493</v>
-      </c>
-      <c r="C363" t="n">
-        <v>2493</v>
-      </c>
-      <c r="D363" t="n">
-        <v>2493</v>
-      </c>
-      <c r="E363" t="n">
-        <v>2493</v>
-      </c>
-      <c r="F363" t="n">
-        <v>120.1796</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-18551.75642085379</v>
-      </c>
-      <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>2488</v>
-      </c>
-      <c r="C364" t="n">
-        <v>2488</v>
-      </c>
-      <c r="D364" t="n">
-        <v>2488</v>
-      </c>
-      <c r="E364" t="n">
-        <v>2488</v>
-      </c>
-      <c r="F364" t="n">
-        <v>15.4997</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-18567.25612085379</v>
-      </c>
-      <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>2488</v>
-      </c>
-      <c r="C365" t="n">
-        <v>2487</v>
-      </c>
-      <c r="D365" t="n">
-        <v>2488</v>
-      </c>
-      <c r="E365" t="n">
-        <v>2487</v>
-      </c>
-      <c r="F365" t="n">
-        <v>7115.4262</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-25682.68232085379</v>
-      </c>
-      <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>2480</v>
-      </c>
-      <c r="C366" t="n">
-        <v>2480</v>
-      </c>
-      <c r="D366" t="n">
-        <v>2480</v>
-      </c>
-      <c r="E366" t="n">
-        <v>2480</v>
-      </c>
-      <c r="F366" t="n">
-        <v>20.137</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-25702.81932085379</v>
-      </c>
-      <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>2482</v>
-      </c>
-      <c r="C367" t="n">
-        <v>2482</v>
-      </c>
-      <c r="D367" t="n">
-        <v>2482</v>
-      </c>
-      <c r="E367" t="n">
-        <v>2482</v>
-      </c>
-      <c r="F367" t="n">
-        <v>3.2911</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-25699.52822085379</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>2473</v>
-      </c>
-      <c r="C368" t="n">
-        <v>2472</v>
-      </c>
-      <c r="D368" t="n">
-        <v>2473</v>
-      </c>
-      <c r="E368" t="n">
-        <v>2472</v>
-      </c>
-      <c r="F368" t="n">
-        <v>20.0866</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-25719.61482085379</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>2469</v>
-      </c>
-      <c r="C369" t="n">
-        <v>2467</v>
-      </c>
-      <c r="D369" t="n">
-        <v>2469</v>
-      </c>
-      <c r="E369" t="n">
-        <v>2467</v>
-      </c>
-      <c r="F369" t="n">
-        <v>443.6415</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-26163.25632085379</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>2462</v>
-      </c>
-      <c r="C370" t="n">
-        <v>2462</v>
-      </c>
-      <c r="D370" t="n">
-        <v>2462</v>
-      </c>
-      <c r="E370" t="n">
-        <v>2462</v>
-      </c>
-      <c r="F370" t="n">
-        <v>39.0416</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-26202.29792085379</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>2469</v>
-      </c>
-      <c r="C371" t="n">
-        <v>2469</v>
-      </c>
-      <c r="D371" t="n">
-        <v>2469</v>
-      </c>
-      <c r="E371" t="n">
-        <v>2469</v>
-      </c>
-      <c r="F371" t="n">
-        <v>119.3735</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-26082.92442085379</v>
-      </c>
-      <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>2462</v>
-      </c>
-      <c r="C372" t="n">
-        <v>2462</v>
-      </c>
-      <c r="D372" t="n">
-        <v>2462</v>
-      </c>
-      <c r="E372" t="n">
-        <v>2462</v>
-      </c>
-      <c r="F372" t="n">
-        <v>254.6792</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-26337.60362085379</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>2477</v>
-      </c>
-      <c r="C373" t="n">
-        <v>2477</v>
-      </c>
-      <c r="D373" t="n">
-        <v>2477</v>
-      </c>
-      <c r="E373" t="n">
-        <v>2477</v>
-      </c>
-      <c r="F373" t="n">
-        <v>219.8605</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-26117.74312085379</v>
-      </c>
-      <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>2485</v>
-      </c>
-      <c r="C374" t="n">
-        <v>2485</v>
-      </c>
-      <c r="D374" t="n">
-        <v>2485</v>
-      </c>
-      <c r="E374" t="n">
-        <v>2485</v>
-      </c>
-      <c r="F374" t="n">
-        <v>4.1799</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-26113.56322085379</v>
-      </c>
-      <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>2485</v>
-      </c>
-      <c r="C375" t="n">
-        <v>2485</v>
-      </c>
-      <c r="D375" t="n">
-        <v>2485</v>
-      </c>
-      <c r="E375" t="n">
-        <v>2485</v>
-      </c>
-      <c r="F375" t="n">
-        <v>3.9238</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-26113.56322085379</v>
-      </c>
-      <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>2487</v>
-      </c>
-      <c r="C376" t="n">
-        <v>2487</v>
-      </c>
-      <c r="D376" t="n">
-        <v>2487</v>
-      </c>
-      <c r="E376" t="n">
-        <v>2487</v>
-      </c>
-      <c r="F376" t="n">
-        <v>555.2906</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-25558.27262085379</v>
-      </c>
-      <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>2487</v>
-      </c>
-      <c r="C377" t="n">
-        <v>2478</v>
-      </c>
-      <c r="D377" t="n">
-        <v>2487</v>
-      </c>
-      <c r="E377" t="n">
-        <v>2478</v>
-      </c>
-      <c r="F377" t="n">
-        <v>506.1374</v>
-      </c>
-      <c r="G377" t="n">
-        <v>-26064.41002085379</v>
-      </c>
-      <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>2478</v>
-      </c>
-      <c r="C378" t="n">
-        <v>2478</v>
-      </c>
-      <c r="D378" t="n">
-        <v>2478</v>
-      </c>
-      <c r="E378" t="n">
-        <v>2478</v>
-      </c>
-      <c r="F378" t="n">
-        <v>162</v>
-      </c>
-      <c r="G378" t="n">
-        <v>-26064.41002085379</v>
-      </c>
-      <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>2483</v>
-      </c>
-      <c r="C379" t="n">
-        <v>2483</v>
-      </c>
-      <c r="D379" t="n">
-        <v>2483</v>
-      </c>
-      <c r="E379" t="n">
-        <v>2483</v>
-      </c>
-      <c r="F379" t="n">
-        <v>3.006</v>
-      </c>
-      <c r="G379" t="n">
-        <v>-26061.40402085379</v>
-      </c>
-      <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>2491</v>
-      </c>
-      <c r="C380" t="n">
-        <v>2491</v>
-      </c>
-      <c r="D380" t="n">
-        <v>2491</v>
-      </c>
-      <c r="E380" t="n">
-        <v>2491</v>
-      </c>
-      <c r="F380" t="n">
-        <v>1</v>
-      </c>
-      <c r="G380" t="n">
-        <v>-26060.40402085379</v>
-      </c>
-      <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>2486</v>
-      </c>
-      <c r="C381" t="n">
-        <v>2492</v>
-      </c>
-      <c r="D381" t="n">
-        <v>2492</v>
-      </c>
-      <c r="E381" t="n">
-        <v>2484</v>
-      </c>
-      <c r="F381" t="n">
-        <v>310.0461</v>
-      </c>
-      <c r="G381" t="n">
-        <v>-25750.35792085379</v>
-      </c>
-      <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>2495</v>
-      </c>
-      <c r="C382" t="n">
-        <v>2495</v>
-      </c>
-      <c r="D382" t="n">
-        <v>2495</v>
-      </c>
-      <c r="E382" t="n">
-        <v>2495</v>
-      </c>
-      <c r="F382" t="n">
-        <v>1</v>
-      </c>
-      <c r="G382" t="n">
-        <v>-25749.35792085379</v>
-      </c>
-      <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>2495</v>
-      </c>
-      <c r="C383" t="n">
-        <v>2496</v>
-      </c>
-      <c r="D383" t="n">
-        <v>2496</v>
-      </c>
-      <c r="E383" t="n">
-        <v>2495</v>
-      </c>
-      <c r="F383" t="n">
-        <v>6</v>
-      </c>
-      <c r="G383" t="n">
-        <v>-25743.35792085379</v>
-      </c>
-      <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L383" t="n">
-        <v>1</v>
-      </c>
-      <c r="M383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>2496</v>
-      </c>
-      <c r="C384" t="n">
-        <v>2496</v>
-      </c>
-      <c r="D384" t="n">
-        <v>2497</v>
-      </c>
-      <c r="E384" t="n">
-        <v>2496</v>
-      </c>
-      <c r="F384" t="n">
-        <v>6</v>
-      </c>
-      <c r="G384" t="n">
-        <v>-25743.35792085379</v>
-      </c>
-      <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L384" t="n">
-        <v>1</v>
-      </c>
-      <c r="M384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>2496</v>
-      </c>
-      <c r="C385" t="n">
-        <v>2496</v>
-      </c>
-      <c r="D385" t="n">
-        <v>2496</v>
-      </c>
-      <c r="E385" t="n">
-        <v>2496</v>
-      </c>
-      <c r="F385" t="n">
-        <v>5</v>
-      </c>
-      <c r="G385" t="n">
-        <v>-25743.35792085379</v>
-      </c>
-      <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L385" t="n">
-        <v>1</v>
-      </c>
-      <c r="M385" t="inlineStr"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>2496</v>
-      </c>
-      <c r="C386" t="n">
-        <v>2496</v>
-      </c>
-      <c r="D386" t="n">
-        <v>2496</v>
-      </c>
-      <c r="E386" t="n">
-        <v>2496</v>
-      </c>
-      <c r="F386" t="n">
-        <v>1</v>
-      </c>
-      <c r="G386" t="n">
-        <v>-25743.35792085379</v>
-      </c>
-      <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L386" t="n">
-        <v>1</v>
-      </c>
-      <c r="M386" t="inlineStr"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>2499</v>
-      </c>
-      <c r="C387" t="n">
-        <v>2499</v>
-      </c>
-      <c r="D387" t="n">
-        <v>2499</v>
-      </c>
-      <c r="E387" t="n">
-        <v>2499</v>
-      </c>
-      <c r="F387" t="n">
-        <v>2</v>
-      </c>
-      <c r="G387" t="n">
-        <v>-25741.35792085379</v>
-      </c>
-      <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L387" t="n">
-        <v>1</v>
-      </c>
-      <c r="M387" t="inlineStr"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>2499</v>
-      </c>
-      <c r="C388" t="n">
-        <v>2499</v>
-      </c>
-      <c r="D388" t="n">
-        <v>2499</v>
-      </c>
-      <c r="E388" t="n">
-        <v>2499</v>
-      </c>
-      <c r="F388" t="n">
-        <v>33.8351</v>
-      </c>
-      <c r="G388" t="n">
-        <v>-25741.35792085379</v>
-      </c>
-      <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L388" t="n">
-        <v>1</v>
-      </c>
-      <c r="M388" t="inlineStr"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>2499</v>
-      </c>
-      <c r="C389" t="n">
-        <v>2499</v>
-      </c>
-      <c r="D389" t="n">
-        <v>2499</v>
-      </c>
-      <c r="E389" t="n">
-        <v>2499</v>
-      </c>
-      <c r="F389" t="n">
-        <v>2</v>
-      </c>
-      <c r="G389" t="n">
-        <v>-25741.35792085379</v>
-      </c>
-      <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L389" t="n">
-        <v>1</v>
-      </c>
-      <c r="M389" t="inlineStr"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="n">
-        <v>2499</v>
-      </c>
-      <c r="C390" t="n">
-        <v>2499</v>
-      </c>
-      <c r="D390" t="n">
-        <v>2499</v>
-      </c>
-      <c r="E390" t="n">
-        <v>2499</v>
-      </c>
-      <c r="F390" t="n">
-        <v>1</v>
-      </c>
-      <c r="G390" t="n">
-        <v>-25741.35792085379</v>
-      </c>
-      <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L390" t="n">
-        <v>1</v>
-      </c>
-      <c r="M390" t="inlineStr"/>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B391" t="n">
-        <v>2498</v>
-      </c>
-      <c r="C391" t="n">
-        <v>2496</v>
-      </c>
-      <c r="D391" t="n">
-        <v>2498</v>
-      </c>
-      <c r="E391" t="n">
-        <v>2496</v>
-      </c>
-      <c r="F391" t="n">
-        <v>103</v>
-      </c>
-      <c r="G391" t="n">
-        <v>-25844.35792085379</v>
-      </c>
-      <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13571,10 +13411,14 @@
         <v>-26566.92392085379</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>2496</v>
+      </c>
+      <c r="J392" t="n">
+        <v>2499</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13608,10 +13452,14 @@
         <v>-26443.89570000545</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>2495</v>
+      </c>
+      <c r="J393" t="n">
+        <v>2499</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13645,10 +13493,14 @@
         <v>-26431.12250000545</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>2502</v>
+      </c>
+      <c r="J394" t="n">
+        <v>2499</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13682,10 +13534,14 @@
         <v>-26500.93390000545</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>2504</v>
+      </c>
+      <c r="J395" t="n">
+        <v>2499</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13719,10 +13575,14 @@
         <v>-25911.01890000545</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>2502</v>
+      </c>
+      <c r="J396" t="n">
+        <v>2499</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13756,10 +13616,14 @@
         <v>-25911.01890000545</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>2516</v>
+      </c>
+      <c r="J397" t="n">
+        <v>2499</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13793,16 +13657,22 @@
         <v>-25769.23240000545</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>2516</v>
+      </c>
+      <c r="J398" t="n">
+        <v>2499</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="n">
+        <v>1</v>
+      </c>
       <c r="M398" t="inlineStr"/>
     </row>
     <row r="399">
@@ -13828,11 +13698,19 @@
         <v>-24298.93680000545</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>2520</v>
+      </c>
+      <c r="J399" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13861,11 +13739,17 @@
         <v>-23529.68414357097</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13894,11 +13778,17 @@
         <v>-23926.10261212206</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13927,11 +13817,17 @@
         <v>-23938.60261212206</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13960,11 +13856,17 @@
         <v>-23956.01881212206</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13993,11 +13895,17 @@
         <v>-24312.65881212206</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14029,8 +13937,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14062,8 +13976,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14095,8 +14015,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14128,8 +14054,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14161,8 +14093,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14194,8 +14132,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14227,8 +14171,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14260,8 +14210,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14293,8 +14249,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14326,8 +14288,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14359,8 +14327,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14392,8 +14366,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14425,8 +14405,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14458,8 +14444,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14491,8 +14483,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14524,8 +14522,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14557,8 +14561,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14590,8 +14600,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14623,8 +14639,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14656,8 +14678,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14689,8 +14717,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14722,8 +14756,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14755,8 +14795,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14788,8 +14834,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14821,8 +14873,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14854,8 +14912,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14887,8 +14951,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14920,8 +14990,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14953,8 +15029,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14986,8 +15068,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15019,8 +15107,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15052,8 +15146,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15085,8 +15185,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15118,8 +15224,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15151,8 +15263,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15184,8 +15302,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15217,8 +15341,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15250,8 +15380,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15283,8 +15419,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15316,8 +15458,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15349,8 +15497,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15382,8 +15536,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15415,8 +15575,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15448,8 +15614,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15481,8 +15653,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15514,8 +15692,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15547,8 +15731,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15580,8 +15770,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15613,8 +15809,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15646,8 +15848,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15679,8 +15887,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15712,8 +15926,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15745,8 +15965,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15778,8 +16004,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15811,8 +16043,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15844,8 +16082,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15877,8 +16121,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15910,8 +16160,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15943,8 +16199,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15976,8 +16238,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16009,8 +16277,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16042,8 +16316,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16075,8 +16355,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16108,8 +16394,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16141,8 +16433,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16174,8 +16472,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16207,8 +16511,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16240,8 +16550,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16273,8 +16589,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16306,8 +16628,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16339,8 +16667,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16372,8 +16706,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16405,8 +16745,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16438,8 +16784,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16471,8 +16823,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16504,8 +16862,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16537,8 +16901,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16570,8 +16940,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16603,8 +16979,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16636,8 +17018,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16669,8 +17057,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16702,8 +17096,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16735,8 +17135,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>2499</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
